--- a/descargas/informeFinalDia.xlsx
+++ b/descargas/informeFinalDia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -517,10 +517,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -541,20 +541,20 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Antonino Marchese</t>
+          <t>Brian Gauto</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -564,154 +564,154 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>14:44:43</t>
+          <t>15:47:46</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>14:46:47</t>
+          <t>20:10:53</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>100.0000%</t>
+          <t>90.0000%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Brian Gauto</t>
+          <t>Carlos Vazquez</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>15:52:31</t>
+          <t>15:26:15</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>20:17:45</t>
+          <t>18:11:48</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>90.0000%</t>
+          <t>84.6154%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Carlos Vazquez</t>
+          <t>Corbalan Ramon</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>21:42:17</t>
+          <t>15:55:35</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>21:42:17</t>
+          <t>17:57:30</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>85.7143%</t>
+          <t>111.7647%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Corbalan Ramon</t>
+          <t>Cristian Flores</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>16:16:18</t>
+          <t>15:17:15</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>19:51:06</t>
+          <t>18:10:43</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>93.3333%</t>
+          <t>100.0000%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Cristian Flores</t>
+          <t>Damian Matias Lopez</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -724,12 +724,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>15:40:58</t>
+          <t>15:19:07</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>19:34:50</t>
+          <t>18:05:26</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -741,17 +741,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Damian Matias Lopez</t>
+          <t>Elvio Ricardo Benitez</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -760,38 +760,38 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>15:40:37</t>
+          <t>16:06:20</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>18:02:23</t>
+          <t>21:20:16</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>112.5000%</t>
+          <t>100.0000%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Elvio Ricardo Benitez</t>
+          <t>Federico Ortega</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -800,81 +800,81 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>16:01:01</t>
+          <t>15:07:11</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>21:37:48</t>
+          <t>18:27:25</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>106.2500%</t>
+          <t>100.0000%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Emiliano Accialini</t>
+          <t>Florencia Santangelo</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>15:44:58</t>
+          <t>15:18:23</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>18:36:00</t>
+          <t>16:59:52</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>107.6923%</t>
+          <t>88.8889%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Federico Ortega</t>
+          <t>Gabriela Tambasco</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -884,34 +884,34 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>15:43:31</t>
+          <t>15:28:03</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>19:41:03</t>
+          <t>19:55:43</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>100.0000%</t>
+          <t>85.7143%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Florencia Santangelo</t>
+          <t>Gastón Cabaña</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -924,34 +924,34 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>15:41:56</t>
+          <t>16:08:02</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>17:36:07</t>
+          <t>18:29:55</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>110.0000%</t>
+          <t>90.9091%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Gabriela Tambasco</t>
+          <t>Gaston Cufre</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -964,12 +964,12 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>15:42:17</t>
+          <t>16:10:51</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>19:00:35</t>
+          <t>18:52:39</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -981,20 +981,20 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Gastón Cabaña</t>
+          <t>Gerardo Rosaschi</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1004,77 +1004,77 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>15:41:45</t>
+          <t>15:33:42</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>19:43:51</t>
+          <t>17:57:32</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>90.9091%</t>
+          <t>82.6087%</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Gerardo Rosaschi</t>
+          <t>Gonzalo Ruben Retamoso</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>15:44:33</t>
+          <t>15:16:35</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>19:14:18</t>
+          <t>18:22:09</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>65.2174%</t>
+          <t>100.0000%</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Gonzalo Ruben Retamoso</t>
+          <t>Javier Montenegro</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1084,154 +1084,150 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>15:50:39</t>
+          <t>14:43:56</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>18:55:18</t>
+          <t>15:39:13</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>95.2381%</t>
+          <t>68.7500%</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Javier Montenegro</t>
+          <t>Juan Alberto Gramajo</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>15:07:26</t>
+          <t>15:45:14</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>16:33:23</t>
+          <t>20:00:54</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>89.4737%</t>
+          <t>91.6667%</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Juan Alberto Gramajo</t>
+          <t>Leandro Dangelo</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>15:39:56</t>
+          <t>15:43:56</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>18:06:04</t>
+          <t>19:25:03</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>111.1111%</t>
+          <t>107.1429%</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Leandro Dangelo</t>
+          <t>Mariano Buscaglia</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>15:44:00</t>
+          <t>NaT</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>21:25:48</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>100.0000%</t>
-        </is>
-      </c>
+          <t>12:42:56</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Mariano Buscaglia</t>
+          <t>Natalia Mildenberger</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1240,41 +1236,41 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>12:19:58</t>
+          <t>21:20:58</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>12:19:58</t>
+          <t>21:20:58</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>100.0000%</t>
+          <t>86.6667%</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Matias Acciaio</t>
+          <t>Nestor Dario Barrios</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -1284,68 +1280,68 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>14:23:38</t>
+          <t>15:32:55</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>19:58:45</t>
+          <t>18:00:05</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>100.0000%</t>
+          <t>80.0000%</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Natalia Mildenberger</t>
+          <t>Nicolas Marchioli</t>
         </is>
       </c>
       <c r="B22" t="n">
+        <v>19</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
         <v>17</v>
       </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>23</v>
-      </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>15:43:19</t>
+          <t>15:21:49</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>20:34:02</t>
+          <t>18:49:00</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>135.2941%</t>
+          <t>89.4737%</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Nicolas Marchioli</t>
+          <t>Pablo Fabian Gozio</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -1354,164 +1350,164 @@
         <v>15</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>15:45:31</t>
+          <t>15:28:43</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>19:36:44</t>
+          <t>16:17:28</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>100.0000%</t>
+          <t>78.9474%</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Pablo Fabian Gozio</t>
+          <t>Paola Gonzalez</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E24" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>15:06:12</t>
+          <t>15:18:11</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>15:55:48</t>
+          <t>18:51:29</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>94.1176%</t>
+          <t>100.0000%</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Paola Gonzalez</t>
+          <t>Ramiro Daniel Coletti</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E25" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>15:49:30</t>
+          <t>16:24:08</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>19:57:54</t>
+          <t>16:24:08</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>108.3333%</t>
+          <t>100.0000%</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Ramiro Daniel Coletti</t>
+          <t>Ricardo Fundora Olivares</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>09:26:00</t>
+          <t>15:16:02</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>16:28:08</t>
+          <t>17:50:57</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>80.0000%</t>
+          <t>100.0000%</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Ricardo Fundora Olivares</t>
+          <t>Santiago Schefer</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -1520,41 +1516,41 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>15:41:50</t>
+          <t>15:05:35</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>18:22:02</t>
+          <t>17:52:16</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>78.9474%</t>
+          <t>100.0000%</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Rodrigo Freire</t>
+          <t>Sebastian Arrieta</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -1564,34 +1560,34 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>12:22:16</t>
+          <t>09:17:59</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>13:24:33</t>
+          <t>15:41:11</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>100.0000%</t>
+          <t>83.3333%</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Santiago Schefer</t>
+          <t>Sergio Hoyuelos</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -1600,75 +1596,71 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>19:52:24</t>
+          <t>NaT</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>19:53:28</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>100.0000%</t>
-        </is>
-      </c>
+          <t>15:27:06</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Sergio Hoyuelos</t>
+          <t>Victor Gonzalez</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>15:39:38</t>
+          <t>15:53:34</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>21:23:01</t>
+          <t>17:07:46</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>120.0000%</t>
+          <t>100.0000%</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Victor Gonzalez</t>
+          <t>Walter Antonio Gerpe</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
         <v>10</v>
@@ -1684,57 +1676,17 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>09:20:53</t>
+          <t>15:28:03</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>17:09:02</t>
+          <t>19:06:19</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
           <t>90.9091%</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Walter Antonio Gerpe</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>9</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" t="n">
-        <v>11</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>2</v>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>17:37:27</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>19:28:13</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>122.2222%</t>
         </is>
       </c>
     </row>

--- a/descargas/informeFinalDia.xlsx
+++ b/descargas/informeFinalDia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,7 +479,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Diferencia_cargados_Entregados</t>
+          <t>Diferencia_cargados_visitados</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -517,10 +517,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -532,149 +532,145 @@
           <t>NaT</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>0.0000%</t>
-        </is>
-      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Brian Gauto</t>
+          <t>asd</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>15:47:46</t>
+          <t>13:04:08</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>20:10:53</t>
+          <t>13:04:08</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>90.0000%</t>
+          <t>0.0000%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Carlos Vazquez</t>
+          <t>Camila Mayra Lopez</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>15:26:15</t>
+          <t>21:54:19</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>18:11:48</t>
+          <t>21:54:19</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>84.6154%</t>
+          <t>100.0000%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Corbalan Ramon</t>
+          <t>Carlos Emanuel Ferreira Acosta</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>15:55:35</t>
+          <t>16:14:51</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>17:57:30</t>
+          <t>20:51:47</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>111.7647%</t>
+          <t>100.0000%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Cristian Flores</t>
+          <t>Carlos Vazquez</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -684,37 +680,37 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>15:17:15</t>
+          <t>19:10:24</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>18:10:43</t>
+          <t>19:15:05</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>100.0000%</t>
+          <t>80.0000%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Damian Matias Lopez</t>
+          <t>Claudio Hector Montes</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>10</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -724,37 +720,37 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>15:19:07</t>
+          <t>16:20:49</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>18:05:26</t>
+          <t>19:35:08</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>100.0000%</t>
+          <t>83.3333%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Elvio Ricardo Benitez</t>
+          <t>Cristian Flores</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -764,77 +760,77 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>16:06:20</t>
+          <t>20:22:15</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>21:20:16</t>
+          <t>21:16:01</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>100.0000%</t>
+          <t>92.8571%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Federico Ortega</t>
+          <t>Damian Matias Lopez</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>15:07:11</t>
+          <t>17:53:45</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>18:27:25</t>
+          <t>22:40:42</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>100.0000%</t>
+          <t>83.3333%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Florencia Santangelo</t>
+          <t>Diego Quinteros</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -844,17 +840,17 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>15:18:23</t>
+          <t>16:12:43</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>16:59:52</t>
+          <t>20:46:30</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>88.8889%</t>
+          <t>100.0000%</t>
         </is>
       </c>
     </row>
@@ -868,13 +864,13 @@
         <v>21</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -884,17 +880,17 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>15:28:03</t>
+          <t>16:13:04</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>19:55:43</t>
+          <t>20:38:49</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>85.7143%</t>
+          <t>95.6522%</t>
         </is>
       </c>
     </row>
@@ -905,13 +901,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -924,17 +920,17 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>16:08:02</t>
+          <t>16:08:46</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>18:29:55</t>
+          <t>23:03:09</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>90.9091%</t>
+          <t>106.6667%</t>
         </is>
       </c>
     </row>
@@ -945,16 +941,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
         <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -964,17 +960,17 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>16:10:51</t>
+          <t>16:14:57</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>18:52:39</t>
+          <t>18:28:58</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>100.0000%</t>
+          <t>66.6667%</t>
         </is>
       </c>
     </row>
@@ -985,16 +981,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1004,37 +1000,37 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>15:33:42</t>
+          <t>17:00:57</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>17:57:32</t>
+          <t>21:30:37</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>82.6087%</t>
+          <t>85.3659%</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Gonzalo Ruben Retamoso</t>
+          <t>Horacio Esteche</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1044,37 +1040,37 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>15:16:35</t>
+          <t>16:08:51</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>18:22:09</t>
+          <t>20:51:58</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>100.0000%</t>
+          <t>82.3529%</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Javier Montenegro</t>
+          <t>Hugo Villoldo</t>
         </is>
       </c>
       <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" t="n">
         <v>16</v>
       </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>11</v>
-      </c>
       <c r="E16" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1084,37 +1080,37 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>14:43:56</t>
+          <t>16:46:37</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>15:39:13</t>
+          <t>19:13:44</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>68.7500%</t>
+          <t>100.0000%</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Juan Alberto Gramajo</t>
+          <t>Javier Montenegro</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1124,28 +1120,28 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>15:45:14</t>
+          <t>16:13:46</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>20:00:54</t>
+          <t>16:13:46</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>91.6667%</t>
+          <t>85.0000%</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Leandro Dangelo</t>
+          <t>Jose Luis Vazquez</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1154,7 +1150,7 @@
         <v>15</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1164,34 +1160,34 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>15:43:56</t>
+          <t>18:49:55</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>19:25:03</t>
+          <t>22:28:54</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>107.1429%</t>
+          <t>115.3846%</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Mariano Buscaglia</t>
+          <t>Leandro Dangelo</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1200,34 +1196,38 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>NaT</t>
+          <t>16:10:27</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>12:42:56</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr"/>
+          <t>19:33:42</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>100.0000%</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Natalia Mildenberger</t>
+          <t>Lucas Bustos</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1236,41 +1236,41 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>21:20:58</t>
+          <t>17:37:33</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>21:20:58</t>
+          <t>22:36:39</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>86.6667%</t>
+          <t>100.0000%</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Nestor Dario Barrios</t>
+          <t>Lucas Irizarri</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -1280,37 +1280,37 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>15:32:55</t>
+          <t>16:13:42</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>18:00:05</t>
+          <t>20:02:25</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>80.0000%</t>
+          <t>95.2381%</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Nicolas Marchioli</t>
+          <t>Mariano Buscaglia</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -1320,157 +1320,157 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>15:21:49</t>
+          <t>15:23:53</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>18:49:00</t>
+          <t>18:42:54</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>89.4737%</t>
+          <t>100.0000%</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Pablo Fabian Gozio</t>
+          <t>Matias Emannuel Sosa</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>15:28:43</t>
+          <t>17:49:30</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>16:17:28</t>
+          <t>17:49:30</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>78.9474%</t>
+          <t>77.7778%</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Paola Gonzalez</t>
+          <t>Natalia Mildenberger</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E24" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>15:18:11</t>
+          <t>16:13:59</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>18:51:29</t>
+          <t>21:25:35</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>100.0000%</t>
+          <t>90.0000%</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Ramiro Daniel Coletti</t>
+          <t>Nestor Dario Barrios</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>16:24:08</t>
+          <t>08:32:15</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>16:24:08</t>
+          <t>14:39:48</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>100.0000%</t>
+          <t>58.8235%</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Ricardo Fundora Olivares</t>
+          <t>Nicolas Emanuel Ramirez</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -1480,77 +1480,77 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>15:16:02</t>
+          <t>16:20:57</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>17:50:57</t>
+          <t>21:17:11</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>100.0000%</t>
+          <t>80.0000%</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Santiago Schefer</t>
+          <t>Ramiro Daniel Coletti</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>15:05:35</t>
+          <t>09:17:28</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>17:52:16</t>
+          <t>15:32:13</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>100.0000%</t>
+          <t>68.1818%</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Sebastian Arrieta</t>
+          <t>Ricardo Fundora Olivares</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -1560,34 +1560,34 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>09:17:59</t>
+          <t>16:12:44</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>15:41:11</t>
+          <t>20:17:10</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>83.3333%</t>
+          <t>73.3333%</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Sergio Hoyuelos</t>
+          <t>Sebastian Arrieta</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -1596,28 +1596,32 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>NaT</t>
+          <t>15:28:05</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>15:27:06</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr"/>
+          <t>20:29:25</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>100.0000%</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Victor Gonzalez</t>
+          <t>Sergio Hoyuelos</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -1632,61 +1636,137 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>15:53:34</t>
+          <t>NaT</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>17:07:46</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>100.0000%</t>
-        </is>
-      </c>
+          <t>16:55:08</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
+          <t>Victor Gonzalez</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>42</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>27</v>
+      </c>
+      <c r="E31" t="n">
+        <v>6</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>9</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>16:47:48</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>17:44:02</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>64.2857%</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
           <t>Walter Antonio Gerpe</t>
         </is>
       </c>
-      <c r="B31" t="n">
-        <v>10</v>
-      </c>
-      <c r="C31" t="n">
-        <v>1</v>
-      </c>
-      <c r="D31" t="n">
-        <v>10</v>
-      </c>
-      <c r="E31" t="n">
-        <v>1</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>15:28:03</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>19:06:19</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>90.9091%</t>
+      <c r="B32" t="n">
+        <v>11</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="n">
+        <v>12</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>21:56:37</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>22:02:41</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>100.0000%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Totales</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>457</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="n">
+        <v>425</v>
+      </c>
+      <c r="E33" t="n">
+        <v>42</v>
+      </c>
+      <c r="F33" t="n">
+        <v>2</v>
+      </c>
+      <c r="G33" t="n">
+        <v>19</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>17:49:30</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>17:49:30</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>87.0902%</t>
         </is>
       </c>
     </row>

--- a/descargas/informeFinalDia.xlsx
+++ b/descargas/informeFinalDia.xlsx
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -556,16 +556,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>10:21:13</t>
+          <t>10:26:02</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>10:21:13</t>
+          <t>10:26:02</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -596,78 +596,78 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>18:27:16</t>
+          <t>15:19:13</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>21:20:03</t>
+          <t>20:06:27</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>92.8571%</t>
+          <t>100.0000%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Camila Mayra Lopez</t>
+          <t>Carlos Emanuel Ferreira Acosta</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>18:22:30</t>
+          <t>15:01:57</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>19:11:30</t>
+          <t>20:50:46</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>100.0000%</t>
+          <t>88.8889%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Carlos Emanuel Ferreira Acosta</t>
+          <t>Carlos Gabriel Rizzetti</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>12</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -676,61 +676,61 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>18:20:18</t>
+          <t>15:01:46</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>19:33:10</t>
+          <t>17:35:14</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>91.6667%</t>
+          <t>80.0000%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Claudio Hector Montes</t>
+          <t>Carlos Vazquez</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>12</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>12:12:00</t>
+          <t>15:02:51</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>12:26:21</t>
+          <t>18:30:53</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>100.0000%</t>
+          <t>92.3077%</t>
         </is>
       </c>
     </row>
@@ -741,13 +741,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -760,12 +760,12 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>18:41:01</t>
+          <t>15:41:34</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>18:41:01</t>
+          <t>19:20:55</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -781,13 +781,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -796,21 +796,21 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>18:28:31</t>
+          <t>15:04:25</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>18:45:18</t>
+          <t>20:22:56</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>88.2353%</t>
+          <t>100.0000%</t>
         </is>
       </c>
     </row>
@@ -821,13 +821,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -836,21 +836,21 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>18:18:04</t>
+          <t>15:08:29</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>19:15:16</t>
+          <t>17:39:43</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>88.2353%</t>
+          <t>90.0000%</t>
         </is>
       </c>
     </row>
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -880,12 +880,12 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>18:17:25</t>
+          <t>15:01:01</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>19:10:18</t>
+          <t>19:07:49</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -901,13 +901,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -916,21 +916,21 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>18:15:36</t>
+          <t>15:01:09</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>18:15:36</t>
+          <t>20:15:38</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>86.6667%</t>
+          <t>93.7500%</t>
         </is>
       </c>
     </row>
@@ -941,13 +941,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -956,21 +956,21 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>18:18:13</t>
+          <t>14:59:49</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>20:40:54</t>
+          <t>20:17:26</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>95.6522%</t>
+          <t>84.2105%</t>
         </is>
       </c>
     </row>
@@ -981,13 +981,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -996,21 +996,21 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>18:11:47</t>
+          <t>14:56:31</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>19:27:36</t>
+          <t>17:32:51</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>94.7368%</t>
+          <t>100.0000%</t>
         </is>
       </c>
     </row>
@@ -1021,13 +1021,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1036,21 +1036,21 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>18:14:37</t>
+          <t>15:33:47</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>22:11:36</t>
+          <t>23:12:02</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>85.7143%</t>
+          <t>100.0000%</t>
         </is>
       </c>
     </row>
@@ -1061,36 +1061,36 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>07:54:56</t>
+          <t>08:02:41</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>17:34:43</t>
+          <t>14:06:08</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>100.0000%</t>
+          <t>75.0000%</t>
         </is>
       </c>
     </row>
@@ -1101,13 +1101,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1116,34 +1116,38 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>NaT</t>
+          <t>14:59:29</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr"/>
+          <t>17:03:35</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>70.0000%</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Horacio Emmanuel De los Santos</t>
+          <t>Hugo Villoldo</t>
         </is>
       </c>
       <c r="B18" t="n">
+        <v>12</v>
+      </c>
+      <c r="C18" t="n">
         <v>1</v>
       </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1156,17 +1160,17 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>09:47:45</t>
+          <t>15:00:10</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>09:47:45</t>
+          <t>17:59:13</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>0.0000%</t>
+          <t>92.3077%</t>
         </is>
       </c>
     </row>
@@ -1177,36 +1181,36 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>11</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
         <v>2</v>
       </c>
-      <c r="D19" t="n">
-        <v>23</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>5</v>
-      </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>18:34:20</t>
+          <t>08:00:41</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>18:34:20</t>
+          <t>14:33:01</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>82.1429%</t>
+          <t>84.6154%</t>
         </is>
       </c>
     </row>
@@ -1217,13 +1221,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1232,21 +1236,21 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>18:21:58</t>
+          <t>15:28:12</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>21:30:10</t>
+          <t>19:18:48</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>89.4737%</t>
+          <t>78.5714%</t>
         </is>
       </c>
     </row>
@@ -1257,13 +1261,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1272,23 +1276,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>13:27:03</t>
+          <t>NaT</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>13:28:09</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>20.0000%</t>
-        </is>
-      </c>
+          <t>13:49:35</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1297,13 +1297,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -1312,21 +1312,21 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>18:28:04</t>
+          <t>14:56:54</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>19:56:39</t>
+          <t>18:09:31</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>93.7500%</t>
+          <t>100.0000%</t>
         </is>
       </c>
     </row>
@@ -1337,7 +1337,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C23" t="n">
         <v>1</v>
@@ -1352,21 +1352,21 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>18:30:07</t>
+          <t>17:09:23</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>18:32:15</t>
+          <t>17:09:24</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>100.0000%</t>
+          <t>78.5714%</t>
         </is>
       </c>
     </row>
@@ -1377,13 +1377,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -1396,17 +1396,17 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>18:20:28</t>
+          <t>15:01:38</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>18:20:28</t>
+          <t>17:47:12</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>90.3226%</t>
+          <t>88.0000%</t>
         </is>
       </c>
     </row>
@@ -1417,38 +1417,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>18:42:48</t>
+          <t>NaT</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>18:43:03</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>78.5714%</t>
-        </is>
-      </c>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1457,13 +1453,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -1472,21 +1468,21 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>22:00:39</t>
+          <t>17:14:34</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>22:01:59</t>
+          <t>20:41:06</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>82.7586%</t>
+          <t>90.9091%</t>
         </is>
       </c>
     </row>
@@ -1497,13 +1493,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C27" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -1512,38 +1508,38 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>18:17:14</t>
+          <t>15:01:26</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>20:08:58</t>
+          <t>18:49:51</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>100.0000%</t>
+          <t>85.7143%</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Paola Gonzalez</t>
+          <t>Pablo Fabian Gozio</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -1552,38 +1548,38 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>18:42:55</t>
+          <t>08:15:17</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>19:28:52</t>
+          <t>16:54:46</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>88.8889%</t>
+          <t>72.7273%</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Ramiro Daniel Coletti</t>
+          <t>Paola Gonzalez</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -1592,38 +1588,38 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>10:07:30</t>
+          <t>18:18:03</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>19:11:23</t>
+          <t>18:30:14</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>78.2609%</t>
+          <t>83.3333%</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Ricardo Alejandro Novoa</t>
+          <t>Ramiro Daniel Coletti</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -1632,78 +1628,78 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>19:08:06</t>
+          <t>10:01:13</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>19:08:06</t>
+          <t>15:43:36</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>62.5000%</t>
+          <t>93.1034%</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Sebastian Arrieta</t>
+          <t>Ricardo Alejandro Novoa</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>16:43:35</t>
+          <t>16:04:34</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>18:04:35</t>
+          <t>18:40:14</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>69.2308%</t>
+          <t>100.0000%</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Sebastian Navarrete</t>
+          <t>Sebastian Arrieta</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -1712,21 +1708,21 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>18:35:41</t>
+          <t>09:45:56</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>18:35:41</t>
+          <t>14:20:00</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>0.0000%</t>
+          <t>100.0000%</t>
         </is>
       </c>
     </row>
@@ -1737,13 +1733,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -1752,21 +1748,21 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>17:17:01</t>
+          <t>14:57:58</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>19:08:41</t>
+          <t>17:03:44</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>100.0000%</t>
+          <t>60.0000%</t>
         </is>
       </c>
     </row>
@@ -1777,13 +1773,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C34" t="n">
         <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -1796,17 +1792,17 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>18:29:27</t>
+          <t>15:43:20</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>19:08:40</t>
+          <t>16:28:01</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>92.0000%</t>
+          <t>85.7143%</t>
         </is>
       </c>
     </row>
@@ -1817,13 +1813,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -1832,21 +1828,21 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>18:24:19</t>
+          <t>13:07:41</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>19:15:35</t>
+          <t>14:59:21</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>62.5000%</t>
+          <t>0.0000%</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1853,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C36" t="n">
         <v>2</v>
@@ -1872,21 +1868,21 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>18:14:39</t>
+          <t>19:26:07</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>18:47:58</t>
+          <t>21:54:32</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>81.8182%</t>
+          <t>75.0000%</t>
         </is>
       </c>
     </row>
@@ -1897,36 +1893,36 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>413</v>
+        <v>367</v>
       </c>
       <c r="C37" t="n">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="D37" t="n">
-        <v>413</v>
+        <v>346</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G37" t="n">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>07:54:56</t>
+          <t>16:04:34</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>17:34:43</t>
+          <t>18:40:14</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>86.9474%</t>
+          <t>87.1537%</t>
         </is>
       </c>
     </row>
